--- a/pizza_onto_manual.xlsx
+++ b/pizza_onto_manual.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="183">
   <si>
     <t xml:space="preserve">Class</t>
   </si>
@@ -31,7 +31,28 @@
     <t xml:space="preserve">HasSubClass</t>
   </si>
   <si>
-    <t xml:space="preserve">hasTopping</t>
+    <t xml:space="preserve">hasTopping1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasTopping2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasTopping3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasTopping4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasTopping5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasTopping6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasTopping7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasTopping8</t>
   </si>
   <si>
     <t xml:space="preserve">hasBase</t>
@@ -49,6 +70,12 @@
     <t xml:space="preserve">label2</t>
   </si>
   <si>
+    <t xml:space="preserve">altlabel1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altlabel2</t>
+  </si>
+  <si>
     <t xml:space="preserve">comment</t>
   </si>
   <si>
@@ -278,6 +305,270 @@
   </si>
   <si>
     <t xml:space="preserve">NaoPicante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PeperoniSausageTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TomatoTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Americana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmericanHot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HotGreenPepperTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JalapenoPepperTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmericanaPicante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Hot Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Hot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cajun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnionTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PeperonataTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrawnsTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TobascoPepperSauceTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cajun Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capricciosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HamTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CaperTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OliveTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnchoviesTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capricciosa Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caprina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SundriedTomatoTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GoatCheeseTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caprina Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiorentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GarlicTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ParmezanTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpinachTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiorentina Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FourSeasons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MushroomTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuatroQueijos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FruttiDiMare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MixedSeaFoodTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FrutosDoMar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FruttiDiMare Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giardiniera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SlicedTomatoTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeekTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PetitPoisTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giardiniera Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LaReine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LaReine Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margherita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margherita Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mushroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cogumelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mushroom Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napoletana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napoletana Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parmense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AsparagusTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permese Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PolloAdAstra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RedOnionTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SweetPepperTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChickenTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CajunSpiceTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PolloAdAstra Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrinceCarlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RosemaryTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoberturaPrinceCarlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrinceCarlo Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuattroFormaggi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FourCheeseTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuattroFormaggi Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorgonzola Topping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosa Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siciliana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArtichokeTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siciliana Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SloppyGiuseppe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GreenPepperTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HotSpicedBeefTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SloppyGiuseppe Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RocketTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soho Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veneziana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SultanaTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PineKernelTopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veneziana Pizza</t>
   </si>
 </sst>
 </file>
@@ -287,11 +578,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -307,6 +599,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -351,8 +650,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,657 +680,1628 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.75"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>21</v>
+      <c r="N6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="L8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="L9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="T11" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C12" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="T14" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="T16" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>60</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="T17" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>69</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="T21" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>79</v>
+        <v>21</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>80</v>
+        <v>27</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>82</v>
+        <v>27</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>84</v>
+        <v>27</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R32" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="R33" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="R34" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="R35" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="R36" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="R37" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="R38" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="R39" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="R40" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="R41" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q42" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="R42" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q43" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="R43" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q44" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="R44" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q45" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="R45" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="R46" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="P47" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="R47" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q48" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="R48" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="R49" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q50" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="R50" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q51" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="R51" s="0" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
